--- a/similarities/split_global/harmonic_similarity_timestamps_97.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_97.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:04:13', '0:04:20.200000')]</t>
+          <t>('0:00:39.040000', '0:00:46.100000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:18.920000', '0:00:21.940000')]</t>
+          <t>('0:00:16.580000', '0:00:22.660000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=253.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=18.92']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:16.701519', '0:00:23.528185')]</t>
+          <t>('0:01:19.980000', '0:01:33.600000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:08.720000', '0:00:10.480000')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=16.701519']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=8.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:04.340000', '0:00:17.660000')]</t>
+          <t>('0:00:40.020000', '0:00:45.900000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:08.660000', '0:01:23.380000')]</t>
+          <t>('0:01:45.240000', '0:02:00.100000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=4.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=40.02</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=68.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=105.24</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:7', 'F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F', 'A#:min']]</t>
+          <t>['F:7', 'Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:08.180000', '0:00:13.260000')]</t>
+          <t>('0:01:13.740000', '0:01:29.520000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:13.360000', '0:00:20.940000')]</t>
+          <t>('0:00:20.050000', '0:00:26.800000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=73.74</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=20.05</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_174</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:06.820000')]</t>
+          <t>('0:00:01.540000', '0:00:06.880000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:32.480000', '0:00:45.820000')]</t>
+          <t>('0:00:42.360000', '0:00:50.360000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-174#t=32.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
+          <t>('0:03:53.340000', '0:04:09.140000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:06.880000', '0:01:19')]</t>
+          <t>('0:00:20.080000', '0:00:23.800000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=62.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=233.34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=66.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=20.08</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>isophonics_248</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>['E', 'A', 'D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['F#/4', 'B', 'E/5']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:40.640000', '0:00:44.840000')]</t>
+          <t>('0:00:09.305410', '0:00:12.800013')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:39.020000', '0:00:47.120000')]</t>
+          <t>('0:02:07.431000', '0:02:12.656000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=40.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=9.30541</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=39.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=127.431</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+          <t>('0:01:08.040000', '0:01:19')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+          <t>('0:00:17.160000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=19.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=31.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=17.16</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>isophonics_127</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:03:09.260000', '0:03:11.680000'), ('0:00:24.240000', '0:00:30.960000')]</t>
+          <t>('0:00:01.014823', '0:00:12.241493')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:45.400000', '0:00:48.120000'), ('0:01:38.020000', '0:01:50.760000')]</t>
+          <t>('0:00:55.580000', '0:01:02.320000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=189.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=24.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=45.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=98.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:53.500000', '0:01:01.320000'), ('0:00:58.120000', '0:01:02.720000'), ('0:01:08.640000', '0:01:17.380000')]</t>
+          <t>('0:00:02.408196', '0:00:13.878853')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:21.680000', '0:00:32.360000'), ('0:01:16.560000', '0:01:20.800000'), ('0:01:19.040000', '0:01:31.180000')]</t>
+          <t>('0:02:08.760000', '0:02:13.560000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=53.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=58.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=21.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=76.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:02.352018', '0:00:08.679455')]</t>
+          <t>('0:00:14.628775', '0:00:26.430680')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:24.580000', '0:00:32.940000')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=2.352018']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=24.58']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['F:min', 'F#/A#', 'F:min/C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['G:min', 'G#:maj/C', 'G:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:03:02.640000', '0:03:04.840000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:00:44.620000', '0:00:47.460000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=182.64</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=44.62</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>jaah_4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>jaah_47</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
+          <t>['Db:maj6', 'Eb:7', 'Ab:7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:01:39.160000', '0:01:44.820000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:00.761383', '0:01:09.294716')]</t>
+          <t>('0:00:44.400000', '0:00:49')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=99.16</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-47#t=44.4</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F', 'C:7', 'F']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:08.040000', '0:01:19')]</t>
+          <t>('0:00:18.420000', '0:00:24.340000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:11.210000', '0:00:14.450000')]</t>
+          <t>('0:00:40.380000', '0:00:42.280000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['A', 'D', 'A', 'E']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:59.220000', '0:01:11.120000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:00:50.730362', '0:00:54.666145')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=50.730362</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
